--- a/src/main/resources/PlaylistData.xlsx
+++ b/src/main/resources/PlaylistData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023PJ\2023Summer\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D44462-2AEB-4057-A8E0-380C44AC3D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB2AEFB-A5B7-43FF-99D6-781C94C2A1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="660" windowWidth="26550" windowHeight="13095" xr2:uid="{44BCC594-A434-4179-98FF-8E061AE4B7A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44BCC594-A434-4179-98FF-8E061AE4B7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,15 +170,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
+    <t>뉴진스 노래 모음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸그룹,아이돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hype boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=11cta61wi0g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴진스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jOTfBlKSQYY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다니엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antifragile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pyf8cbqyfPs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>르세라핌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이브, 프시케, 그리고 푸른 수염의 아내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dZs_cLHfnNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김채원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허윤진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카즈하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 플레이리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AbZH7XWDW_k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BEAB60-573D-4C3D-A374-68F2F4D07D15}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -839,13 +935,21 @@
       <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -866,106 +970,188 @@
         <v>32</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -994,9 +1180,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1405,8 +1589,13 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{48FD9D5A-0F10-4730-86CA-355544A632A9}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{3DD7A9E4-F609-4D07-9A62-11CD0EC1D062}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{C9955498-50F6-4907-8055-6979AA0B5234}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{A8A31220-A55A-4A52-8761-AA2B3F441D33}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{C7285245-A1CA-4093-B918-4248B9A01FD1}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{003A6C64-E1BF-451B-8BA9-EDF4A6051C4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>